--- a/lookup_pys/geometry_lookup.xlsx
+++ b/lookup_pys/geometry_lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\E_Plus_2029_py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\E_Plus_2030_py\lookup_pys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D075138C-2E16-43E0-BBDE-5209EE832F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D50DE8A-E56A-489D-951E-18F60BFD98BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18730" yWindow="-19000" windowWidth="22100" windowHeight="15590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,11 +489,12 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J4" sqref="A1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
